--- a/MAE&Rank.xlsx
+++ b/MAE&Rank.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\1 A\AA Python\GitHub\MachineLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\1 A\AA Python\Housing-Prices-Competition-for-Kaggle-Learn-Users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BE8AC1-E602-48E8-B80A-CBE168EA5E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B14A57-95AE-4481-80C6-1353CAC7D8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20280" yWindow="-150" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>5 - SubmissionIowa1</t>
   </si>
@@ -694,6 +694,15 @@
   </si>
   <si>
     <t>12 - Rewrited(2) with new features and no max_leaf_nodes</t>
+  </si>
+  <si>
+    <t>16108.54481</t>
+  </si>
+  <si>
+    <t>6 &amp; 7  - Same submission as before with NaN value in columns replaced by weighted average multiply by good number</t>
+  </si>
+  <si>
+    <t>NaN values are replaced by average of the rest of dataframe</t>
   </si>
 </sst>
 </file>
@@ -808,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -816,9 +825,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -869,6 +875,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,76 +1165,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14"/>
-    <col min="2" max="2" width="13.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="13.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="48.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="8" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>36863</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>21.856999999999999</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1227,19 +1245,19 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>29929</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>21.856999999999999</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>21.765000000000001</v>
       </c>
       <c r="F4" s="1">
@@ -1247,7 +1265,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1">
@@ -1261,7 +1279,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1">
@@ -1273,43 +1291,43 @@
       <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>23910</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>21.314</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1">
         <v>21.314</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>21.268999999999998</v>
       </c>
       <c r="F8" s="2">
@@ -1320,19 +1338,19 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>23948</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>21.361999999999998</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>21.268000000000001</v>
       </c>
       <c r="F9" s="1">
@@ -1341,18 +1359,18 @@
       <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="1">
         <v>21.361999999999998</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>21.265000000000001</v>
       </c>
       <c r="F10" s="1">
@@ -1361,7 +1379,7 @@
       <c r="G10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1369,7 +1387,7 @@
       <c r="D11" s="1">
         <v>21.867000000000001</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>21.745000000000001</v>
       </c>
       <c r="F11" s="1">
@@ -1383,7 +1401,7 @@
       <c r="D12" s="1">
         <v>21.587</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>21.574000000000002</v>
       </c>
       <c r="F12" s="1">
@@ -1397,7 +1415,7 @@
       <c r="D13" s="1">
         <v>21.69</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>21.597999999999999</v>
       </c>
       <c r="F13" s="1">
@@ -1408,7 +1426,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="1">
@@ -1425,7 +1443,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="1">
@@ -1439,7 +1457,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="1">
@@ -1454,24 +1472,24 @@
       <c r="G16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>6295</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="22" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="1">
         <v>16.350999999999999</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>16.681999999999999</v>
       </c>
       <c r="F17" s="1">
@@ -1480,21 +1498,21 @@
       <c r="G17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="18">
+      <c r="A18" s="17">
         <v>4868</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>16.350999999999999</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1503,8 +1521,31 @@
       <c r="G18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="17">
+        <v>2495</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="11">
+        <v>16.222999999999999</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/MAE&Rank.xlsx
+++ b/MAE&Rank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\1 A\AA Python\Housing-Prices-Competition-for-Kaggle-Learn-Users\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\1 A\AA Python\GitHub\MachineLearning\My-submissions-at-Housing-Prices-Competition-for-Kaggle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B14A57-95AE-4481-80C6-1353CAC7D8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4629B050-AA5A-4F94-821D-FAD1E5EF4849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="-150" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>5 - SubmissionIowa1</t>
   </si>
@@ -703,13 +703,28 @@
   </si>
   <si>
     <t>NaN values are replaced by average of the rest of dataframe</t>
+  </si>
+  <si>
+    <t>8 - Same submission as before with a better order of numbers in object column &amp; weighted average multiply by 0.4</t>
+  </si>
+  <si>
+    <t>Values of n in loop improving MAE : 3, 2, 1</t>
+  </si>
+  <si>
+    <t>16044.53294</t>
+  </si>
+  <si>
+    <t>9 - Same submission as before with a true value of average in Nan Entries</t>
+  </si>
+  <si>
+    <t>16507.43478</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,6 +765,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -817,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -876,13 +898,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,20 +1190,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="13"/>
     <col min="2" max="2" width="13.85546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" style="23" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
@@ -1265,7 +1290,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1">
@@ -1279,7 +1304,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1">
@@ -1321,7 +1346,7 @@
       <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1">
@@ -1344,7 +1369,7 @@
       <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="1">
@@ -1426,7 +1451,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="23" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="1">
@@ -1457,7 +1482,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="23" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="1">
@@ -1546,6 +1571,46 @@
       </c>
       <c r="H19" s="8" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="13">
+        <v>2382</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="11">
+        <v>16.492999999999999</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/MAE&Rank.xlsx
+++ b/MAE&Rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\1 A\AA Python\GitHub\MachineLearning\My-submissions-at-Housing-Prices-Competition-for-Kaggle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4629B050-AA5A-4F94-821D-FAD1E5EF4849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D05D658-11DE-41CB-9A75-9C8CF9FFCE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="-150" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>5 - SubmissionIowa1</t>
   </si>
@@ -718,6 +718,34 @@
   </si>
   <si>
     <t>16507.43478</t>
+  </si>
+  <si>
+    <t>9.5 - Submission with a true value of average in NaN entries - certain features pull out</t>
+  </si>
+  <si>
+    <t>16073.13031</t>
+  </si>
+  <si>
+    <t>9.2 - Submission as before with a better value of average in NaN entries</t>
+  </si>
+  <si>
+    <t>9.7 - Submission with a better value of average in NaN entries - certain features pull out</t>
+  </si>
+  <si>
+    <t>16514.11722</t>
+  </si>
+  <si>
+    <t>plus 
+robuste</t>
+  </si>
+  <si>
+    <t>2382
+coup
+de
+chance</t>
+  </si>
+  <si>
+    <t>10 - Same submission as 9,5 with string columns dict adjusted</t>
   </si>
 </sst>
 </file>
@@ -777,7 +805,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -826,6 +854,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -839,7 +873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -895,20 +929,35 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1190,20 +1239,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="13"/>
     <col min="2" max="2" width="13.85546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="52.7109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" style="22" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
@@ -1215,16 +1264,16 @@
     <row r="1" spans="1:8">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="20"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="13" t="s">
@@ -1233,7 +1282,7 @@
       <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1259,7 +1308,7 @@
       <c r="B3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="11">
@@ -1276,7 +1325,7 @@
       <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1">
@@ -1290,7 +1339,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1">
@@ -1304,7 +1353,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1">
@@ -1327,7 +1376,7 @@
       <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="11">
@@ -1346,7 +1395,7 @@
       <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1">
@@ -1369,7 +1418,7 @@
       <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="1">
@@ -1451,7 +1500,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="1">
@@ -1482,7 +1531,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="1">
@@ -1508,7 +1557,7 @@
       <c r="B17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="1">
@@ -1534,7 +1583,7 @@
       <c r="B18" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="11">
@@ -1557,7 +1606,7 @@
       <c r="B19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="11">
@@ -1577,7 +1626,7 @@
       <c r="B20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="1">
@@ -1593,14 +1642,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="13">
-        <v>2382</v>
+    <row r="21" spans="1:8" ht="60">
+      <c r="A21" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="11">
@@ -1611,6 +1660,44 @@
       </c>
       <c r="H21" s="8" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="C22" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1">
+        <v>16.359000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30">
+      <c r="A23" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="28">
+        <v>16.132000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1">
+        <v>16.021000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/MAE&Rank.xlsx
+++ b/MAE&Rank.xlsx
@@ -8,32 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\1 A\AA Python\GitHub\MachineLearning\My-submissions-at-Housing-Prices-Competition-for-Kaggle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D05D658-11DE-41CB-9A75-9C8CF9FFCE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6494AB64-3561-450D-A36B-12DE6CA55C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="-150" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
   <si>
     <t>5 - SubmissionIowa1</t>
   </si>
   <si>
     <t>6 - Sub2 - Max_leaf_Nodes_Random_Trees_Iowa</t>
-  </si>
-  <si>
-    <t>Features added</t>
   </si>
   <si>
     <t>MAE</t>
@@ -746,6 +751,60 @@
   </si>
   <si>
     <t>10 - Same submission as 9,5 with string columns dict adjusted</t>
+  </si>
+  <si>
+    <t>without changes in default dicts</t>
+  </si>
+  <si>
+    <t>Features added/dicts changes</t>
+  </si>
+  <si>
+    <t>15967.59577</t>
+  </si>
+  <si>
+    <t>15731.84089</t>
+  </si>
+  <si>
+    <t>adjust more dictionaries</t>
+  </si>
+  <si>
+    <t>adjust dictionaries until 'Neighborhood'</t>
+  </si>
+  <si>
+    <t>15779.16766</t>
+  </si>
+  <si>
+    <t>same as before without certain features</t>
+  </si>
+  <si>
+    <t>15656.50072</t>
+  </si>
+  <si>
+    <t>12 - Submission using average of Prices in place of values for string columns</t>
+  </si>
+  <si>
+    <t>11 - Same submission as 10 without certain features</t>
+  </si>
+  <si>
+    <t>Dicts are automatics</t>
+  </si>
+  <si>
+    <t>15643.03987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - Bis - Submission using average of Prices in place of value in string columns - Rewrited </t>
+  </si>
+  <si>
+    <t>15626.75445</t>
+  </si>
+  <si>
+    <t>15617.55522</t>
+  </si>
+  <si>
+    <t>13 - Submission using average of Prices in place of value in certains columns - One column pulled out</t>
+  </si>
+  <si>
+    <t>15524.77078</t>
   </si>
 </sst>
 </file>
@@ -873,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -941,9 +1000,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -957,6 +1013,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1239,13 +1301,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1266,39 +1328,39 @@
       <c r="B1" s="12"/>
       <c r="C1" s="19"/>
       <c r="D1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+        <v>22</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1306,7 +1368,7 @@
         <v>36863</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>0</v>
@@ -1315,7 +1377,7 @@
         <v>21.856999999999999</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1323,7 +1385,7 @@
         <v>29929</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>1</v>
@@ -1340,33 +1402,33 @@
     </row>
     <row r="5" spans="1:8">
       <c r="C5" s="22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
         <v>21.69</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="C6" s="22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>21.349</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1374,29 +1436,29 @@
         <v>23910</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="11">
         <v>21.314</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1">
         <v>21.314</v>
@@ -1408,7 +1470,7 @@
         <v>305</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1416,10 +1478,10 @@
         <v>23948</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>21.361999999999998</v>
@@ -1431,15 +1493,15 @@
         <v>228</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1">
         <v>21.361999999999998</v>
@@ -1451,10 +1513,10 @@
         <v>228</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1468,7 +1530,7 @@
         <v>234</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1482,7 +1544,7 @@
         <v>232</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1496,12 +1558,12 @@
         <v>219</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="C14" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
         <v>21.393999999999998</v>
@@ -1513,26 +1575,26 @@
         <v>228</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1">
         <v>21.324000000000002</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="C16" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1">
         <v>21.613</v>
@@ -1544,10 +1606,10 @@
         <v>254</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1555,10 +1617,10 @@
         <v>6295</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1">
         <v>16.350999999999999</v>
@@ -1570,10 +1632,10 @@
         <v>335</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1581,22 +1643,22 @@
         <v>4868</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="11">
         <v>16.350999999999999</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1604,92 +1666,92 @@
         <v>2495</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="D19" s="11">
         <v>16.222999999999999</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="B20" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1">
         <v>16.079999999999998</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60">
+      <c r="A21" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="60">
-      <c r="A21" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="18" t="s">
+      <c r="C21" s="21" t="s">
         <v>46</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>47</v>
       </c>
       <c r="D21" s="11">
         <v>16.492999999999999</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="C22" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1">
         <v>16.359000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30">
-      <c r="A23" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="27" t="s">
+      <c r="A23" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="28">
+      <c r="C23" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="27">
         <v>16.132000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1">
         <v>16.021000000000001</v>
@@ -1697,7 +1759,126 @@
     </row>
     <row r="25" spans="1:8">
       <c r="C25" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="1">
+        <v>16.603000000000002</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="13">
+        <v>2254</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="11">
+        <v>16.111999999999998</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="13">
+        <v>2050</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="11">
+        <v>15.907</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="1">
+        <v>15.877000000000001</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="13">
+        <v>2012</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="11">
+        <v>15.677</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="13">
+        <v>2010</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="11">
+        <v>15.79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="13">
+        <v>2004</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="11">
+        <v>15.79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="11">
+        <v>15.521000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="13">
+        <v>1964</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="11">
+        <v>15.577999999999999</v>
       </c>
     </row>
   </sheetData>
